--- a/Working/Evaluation_model.xlsx
+++ b/Working/Evaluation_model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>backbone</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Iou_score</t>
+  </si>
+  <si>
+    <t>mobilenetv2</t>
   </si>
   <si>
     <t>efficientnetb3</t>
@@ -392,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,15 +426,35 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>1879.674737453461</v>
+      </c>
+      <c r="E2">
+        <v>0.4501940608024597</v>
+      </c>
+      <c r="F2">
+        <v>0.5199892520904541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
         <v>2729.571378707886</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>0.4302436709403992</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0.5348884463310242</v>
       </c>
     </row>

--- a/Working/Evaluation_model.xlsx
+++ b/Working/Evaluation_model.xlsx
@@ -1,69 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>backbone</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>Time_training</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>Iou_score</t>
-  </si>
-  <si>
-    <t>mobilenetv2</t>
-  </si>
-  <si>
-    <t>efficientnetb3</t>
-  </si>
-  <si>
-    <t>Unet</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,71 +420,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>backbone</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time_training</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Iou_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>vgg16</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Unet</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3636.498967170715</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4563145339488983</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5168672800064087</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>inceptionv3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Unet</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3004.866466283798</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4299691915512085</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5367841720581055</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mobilenetv2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Unet</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1879.674737453461</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4501940608024597</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5199892520904541</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1879.674737453461</v>
-      </c>
-      <c r="E2">
-        <v>0.4501940608024597</v>
-      </c>
-      <c r="F2">
-        <v>0.5199892520904541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>efficientnetb3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Unet</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>2729.571378707886</v>
       </c>
-      <c r="E3">
+      <c r="E5" t="n">
         <v>0.4302436709403992</v>
       </c>
-      <c r="F3">
+      <c r="F5" t="n">
         <v>0.5348884463310242</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Working/Evaluation_model.xlsx
+++ b/Working/Evaluation_model.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,22 +466,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vgg16</t>
+          <t>inceptionv3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unet</t>
+          <t>Linknet</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3636.498967170715</v>
+        <v>2318.630427837372</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4563145339488983</v>
+        <v>0.4555181860923767</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5168672800064087</v>
+        <v>0.5157241225242615</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>inceptionv3</t>
+          <t>resnet50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unet</t>
+          <t>Linknet</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3004.866466283798</v>
+        <v>2392.091973543167</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4299691915512085</v>
+        <v>0.4421257674694061</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5367841720581055</v>
+        <v>0.5265852808952332</v>
       </c>
     </row>
     <row r="4">
@@ -514,22 +514,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mobilenetv2</t>
+          <t>vgg16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Unet</t>
+          <t>Linknet</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1879.674737453461</v>
+        <v>3602.742986917496</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4501940608024597</v>
+        <v>0.4861548542976379</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5199892520904541</v>
+        <v>0.4944926798343658</v>
       </c>
     </row>
     <row r="5">
@@ -538,22 +538,238 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>resnet50</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FPN</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5574.92250418663</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4297623932361603</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5363329648971558</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>vgg16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FPN</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4756.101278781891</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.424974799156189</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5442898869514465</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>vgg16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unet</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4716.292528152466</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4507951736450195</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5241286158561707</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>resnet50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Unet</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2754.380666732788</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4360016286373138</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5328055620193481</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>mobilenetv2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Unet</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2111.10973405838</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4413233399391174</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5261819958686829</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>mobilenetv2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FPN</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3336.091648578644</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4342325925827026</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5321879982948303</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>inceptionv3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FPN</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4416.651027202606</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4331903159618378</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5345311164855957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>efficientnetb3</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Unet</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2729.571378707886</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4302436709403992</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5348884463310242</v>
+      <c r="D12" t="n">
+        <v>3795.621105670929</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4297666847705841</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.537204921245575</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>efficientnetb3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FPN</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5052.327916383743</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4286631047725677</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5375847816467285</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>inceptionv3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Unet</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>8913.76966381073</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4430693387985229</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5273230671882629</v>
       </c>
     </row>
   </sheetData>

--- a/Working/Evaluation_model.xlsx
+++ b/Working/Evaluation_model.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>inceptionv3</t>
+          <t>efficientnetb3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2318.630427837372</v>
+        <v>3015.350176334381</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4555181860923767</v>
+        <v>0.4472981989383698</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5157241225242615</v>
+        <v>0.5214430093765259</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +490,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>resnet50</t>
+          <t>inceptionv3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2392.091973543167</v>
+        <v>2318.630427837372</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4421257674694061</v>
+        <v>0.4555181860923767</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5265852808952332</v>
+        <v>0.5157241225242615</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vgg16</t>
+          <t>resnet50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3602.742986917496</v>
+        <v>2392.091973543167</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4861548542976379</v>
+        <v>0.4421257674694061</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4944926798343658</v>
+        <v>0.5265852808952332</v>
       </c>
     </row>
     <row r="5">
@@ -538,22 +538,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>resnet50</t>
+          <t>vgg16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FPN</t>
+          <t>Linknet</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5574.92250418663</v>
+        <v>3602.742986917496</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4297623932361603</v>
+        <v>0.4861548542976379</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5363329648971558</v>
+        <v>0.4944926798343658</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>vgg16</t>
+          <t>resnet50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4756.101278781891</v>
+        <v>5574.92250418663</v>
       </c>
       <c r="E6" t="n">
-        <v>0.424974799156189</v>
+        <v>0.4297623932361603</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5442898869514465</v>
+        <v>0.5363329648971558</v>
       </c>
     </row>
     <row r="7">
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Unet</t>
+          <t>FPN</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4716.292528152466</v>
+        <v>4756.101278781891</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4507951736450195</v>
+        <v>0.424974799156189</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5241286158561707</v>
+        <v>0.5442898869514465</v>
       </c>
     </row>
     <row r="8">
@@ -610,7 +610,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>resnet50</t>
+          <t>vgg16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2754.380666732788</v>
+        <v>4716.292528152466</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4360016286373138</v>
+        <v>0.4507951736450195</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5328055620193481</v>
+        <v>0.5241286158561707</v>
       </c>
     </row>
     <row r="9">
@@ -634,7 +634,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mobilenetv2</t>
+          <t>resnet50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2111.10973405838</v>
+        <v>2754.380666732788</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4413233399391174</v>
+        <v>0.4360016286373138</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5261819958686829</v>
+        <v>0.5328055620193481</v>
       </c>
     </row>
     <row r="10">
@@ -663,17 +663,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FPN</t>
+          <t>Unet</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3336.091648578644</v>
+        <v>2111.10973405838</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4342325925827026</v>
+        <v>0.4413233399391174</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5321879982948303</v>
+        <v>0.5261819958686829</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +682,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>inceptionv3</t>
+          <t>mobilenetv2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4416.651027202606</v>
+        <v>3336.091648578644</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4331903159618378</v>
+        <v>0.4342325925827026</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5345311164855957</v>
+        <v>0.5321879982948303</v>
       </c>
     </row>
     <row r="12">
@@ -706,22 +706,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>efficientnetb3</t>
+          <t>inceptionv3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Unet</t>
+          <t>FPN</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3795.621105670929</v>
+        <v>4416.651027202606</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4297666847705841</v>
+        <v>0.4331903159618378</v>
       </c>
       <c r="F12" t="n">
-        <v>0.537204921245575</v>
+        <v>0.5345311164855957</v>
       </c>
     </row>
     <row r="13">
@@ -735,17 +735,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FPN</t>
+          <t>Unet</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5052.327916383743</v>
+        <v>3795.621105670929</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4286631047725677</v>
+        <v>0.4297666847705841</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5375847816467285</v>
+        <v>0.537204921245575</v>
       </c>
     </row>
     <row r="14">
@@ -754,21 +754,45 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>efficientnetb3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FPN</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5052.327916383743</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4286631047725677</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5375847816467285</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>inceptionv3</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Unet</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>8913.76966381073</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>0.4430693387985229</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>0.5273230671882629</v>
       </c>
     </row>

--- a/Working/Evaluation_model.xlsx
+++ b/Working/Evaluation_model.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>efficientnetb3</t>
+          <t>mobilenetv2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3015.350176334381</v>
+        <v>2178.946641683578</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4472981989383698</v>
+        <v>0.465984970331192</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5214430093765259</v>
+        <v>0.5092705488204956</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +490,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>inceptionv3</t>
+          <t>efficientnetb3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2318.630427837372</v>
+        <v>3015.35017633438</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4555181860923767</v>
+        <v>0.44729819893837</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5157241225242615</v>
+        <v>0.521443009376526</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>resnet50</t>
+          <t>inceptionv3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2392.091973543167</v>
+        <v>2318.63042783737</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4421257674694061</v>
+        <v>0.455518186092377</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5265852808952332</v>
+        <v>0.515724122524262</v>
       </c>
     </row>
     <row r="5">
@@ -538,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vgg16</t>
+          <t>resnet50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3602.742986917496</v>
+        <v>2392.09197354317</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4861548542976379</v>
+        <v>0.442125767469406</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4944926798343658</v>
+        <v>0.526585280895233</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>resnet50</t>
+          <t>vgg16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FPN</t>
+          <t>Linknet</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5574.92250418663</v>
+        <v>3602.7429869175</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4297623932361603</v>
+        <v>0.486154854297638</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5363329648971558</v>
+        <v>0.494492679834366</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>vgg16</t>
+          <t>resnet50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4756.101278781891</v>
+        <v>5574.92250418663</v>
       </c>
       <c r="E7" t="n">
-        <v>0.424974799156189</v>
+        <v>0.42976239323616</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5442898869514465</v>
+        <v>0.536332964897156</v>
       </c>
     </row>
     <row r="8">
@@ -615,17 +615,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Unet</t>
+          <t>FPN</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4716.292528152466</v>
+        <v>4756.10127878189</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4507951736450195</v>
+        <v>0.424974799156189</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5241286158561707</v>
+        <v>0.544289886951447</v>
       </c>
     </row>
     <row r="9">
@@ -634,7 +634,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>resnet50</t>
+          <t>vgg16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2754.380666732788</v>
+        <v>4716.29252815247</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4360016286373138</v>
+        <v>0.450795173645019</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5328055620193481</v>
+        <v>0.524128615856171</v>
       </c>
     </row>
     <row r="10">
@@ -658,7 +658,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mobilenetv2</t>
+          <t>resnet50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2111.10973405838</v>
+        <v>2754.38066673279</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4413233399391174</v>
+        <v>0.436001628637314</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5261819958686829</v>
+        <v>0.532805562019348</v>
       </c>
     </row>
     <row r="11">
@@ -687,17 +687,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FPN</t>
+          <t>Unet</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3336.091648578644</v>
+        <v>2111.10973405838</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4342325925827026</v>
+        <v>0.441323339939117</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5321879982948303</v>
+        <v>0.526181995868683</v>
       </c>
     </row>
     <row r="12">
@@ -706,7 +706,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>inceptionv3</t>
+          <t>mobilenetv2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -715,13 +715,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4416.651027202606</v>
+        <v>3336.09164857864</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4331903159618378</v>
+        <v>0.434232592582703</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5345311164855957</v>
+        <v>0.53218799829483</v>
       </c>
     </row>
     <row r="13">
@@ -730,22 +730,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>efficientnetb3</t>
+          <t>inceptionv3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Unet</t>
+          <t>FPN</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3795.621105670929</v>
+        <v>4416.65102720261</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4297666847705841</v>
+        <v>0.433190315961838</v>
       </c>
       <c r="F13" t="n">
-        <v>0.537204921245575</v>
+        <v>0.534531116485596</v>
       </c>
     </row>
     <row r="14">
@@ -759,17 +759,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FPN</t>
+          <t>Unet</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5052.327916383743</v>
+        <v>3795.62110567093</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4286631047725677</v>
+        <v>0.429766684770584</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5375847816467285</v>
+        <v>0.537204921245575</v>
       </c>
     </row>
     <row r="15">
@@ -778,22 +778,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>efficientnetb3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FPN</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5052.32791638374</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.428663104772568</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.537584781646729</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>inceptionv3</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Unet</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>8913.76966381073</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.4430693387985229</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5273230671882629</v>
+      <c r="E16" t="n">
+        <v>0.443069338798523</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5273230671882631</v>
       </c>
     </row>
   </sheetData>
